--- a/Documents/Iteration 2 Test Plan.xlsx
+++ b/Documents/Iteration 2 Test Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horse\source\repos\LocationTriggering\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F337D6BB-1D9D-434E-B433-41297EDCFE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7154992-C7E4-4635-854B-4341F1EF0DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15730840-8B13-4129-956A-A7DFC5CF7C66}"/>
+    <workbookView xWindow="38400" yWindow="480" windowWidth="28800" windowHeight="15435" xr2:uid="{15730840-8B13-4129-956A-A7DFC5CF7C66}"/>
   </bookViews>
   <sheets>
     <sheet name="LocationsAtPoint" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Test Plan</t>
   </si>
@@ -54,9 +54,6 @@
     <t>System/Program Name:</t>
   </si>
   <si>
-    <t>Module Name: LocationData Requirement 2</t>
-  </si>
-  <si>
     <t>Tester name: Colm Canavan</t>
   </si>
   <si>
@@ -106,6 +103,12 @@
   </si>
   <si>
     <t>Ascertain the accuracy of the LocationTriggerCollection's LocationsAtPoint method</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Module Name: Point In Location</t>
   </si>
 </sst>
 </file>
@@ -274,6 +277,33 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -283,12 +313,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -297,27 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +639,7 @@
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G12"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,189 +664,205 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="16"/>
+      <c r="G7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="9"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="5">
         <v>2.1</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="6">
         <v>44106</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5">
         <v>2.1</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="12"/>
+      <c r="H9" s="6">
+        <v>44116</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="6">
         <v>44106</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="6">
+        <v>44116</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="6">
         <v>44106</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="12"/>
+      <c r="H11" s="6">
+        <v>44116</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="5">
         <v>2.4</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="6">
         <v>44106</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>44116</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
